--- a/biology/Botanique/Estelle_Lacoursière/Estelle_Lacoursière.xlsx
+++ b/biology/Botanique/Estelle_Lacoursière/Estelle_Lacoursière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Estelle_Lacoursi%C3%A8re</t>
+          <t>Estelle_Lacoursière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rose-Estelle Lacoursière-Lessard, née à Saint-Léon-le-Grand, au Québec, en 1935, et morte le 13 septembre 2021 à Trois-Rivières[1], est une religieuse, professeure, botaniste et écologue québécoise. Elle fut la première femme à obtenir une maîtrise en science forestière à l'Université Laval, en 1969[1]. Elle commença son service religieux dès l'âge de 13 ans et il dura jusqu'à sa mort[2] même si sa carrière professionnelle fut plutôt centrée sur l'enseignement et l'étude de la botanique (lui valant le surnom de «sœur verte»). 
-Elle enseignait la botanique à l'Université du Québec à Trois-Rivières au département de géographie et d'écologie dont elle participa à la création[1]. Elle fit également des recherches en botanique pour cataloguer des espèces végétales au compte de l'herbier de l'université (renommé en son nom post-mortem), ses efforts lui ayant permis d'y ajouter 20 000 espèces[1]. Elle fut également célébrée pour ses efforts écologistes avant-gardistes de vulgarisation et de défense de l'environnement et du développement durable, qui lui permirent de préserver et d'améliorer l'écologie du campus en plus de solidifier dans l'esprit populaire l'aster à feuilles de linaire comme emblème de Trois-Rivières (qui ne pousse que dans sa région immédiate)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rose-Estelle Lacoursière-Lessard, née à Saint-Léon-le-Grand, au Québec, en 1935, et morte le 13 septembre 2021 à Trois-Rivières, est une religieuse, professeure, botaniste et écologue québécoise. Elle fut la première femme à obtenir une maîtrise en science forestière à l'Université Laval, en 1969. Elle commença son service religieux dès l'âge de 13 ans et il dura jusqu'à sa mort même si sa carrière professionnelle fut plutôt centrée sur l'enseignement et l'étude de la botanique (lui valant le surnom de «sœur verte»). 
+Elle enseignait la botanique à l'Université du Québec à Trois-Rivières au département de géographie et d'écologie dont elle participa à la création. Elle fit également des recherches en botanique pour cataloguer des espèces végétales au compte de l'herbier de l'université (renommé en son nom post-mortem), ses efforts lui ayant permis d'y ajouter 20 000 espèces. Elle fut également célébrée pour ses efforts écologistes avant-gardistes de vulgarisation et de défense de l'environnement et du développement durable, qui lui permirent de préserver et d'améliorer l'écologie du campus en plus de solidifier dans l'esprit populaire l'aster à feuilles de linaire comme emblème de Trois-Rivières (qui ne pousse que dans sa région immédiate).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Estelle_Lacoursi%C3%A8re</t>
+          <t>Estelle_Lacoursière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Biodiversité des milieux humides
 Fleurs sauvages du Québec
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estelle_Lacoursi%C3%A8re</t>
+          <t>Estelle_Lacoursière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1987 - Prix Northern Telecom en études canadiennes de l'Association canadienne française pour l'avancement des sciences
 1998 - Membre du Cercle des Phénix
